--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H2">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>645.7442165539184</v>
+        <v>1214.848708820747</v>
       </c>
       <c r="R2">
-        <v>645.7442165539184</v>
+        <v>10933.63837938672</v>
       </c>
       <c r="S2">
-        <v>0.002941615029462855</v>
+        <v>0.005240287112481905</v>
       </c>
       <c r="T2">
-        <v>0.002941615029462855</v>
+        <v>0.005240287112481904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H3">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>619.55871168295</v>
+        <v>1054.336690516443</v>
       </c>
       <c r="R3">
-        <v>619.55871168295</v>
+        <v>9489.030214647984</v>
       </c>
       <c r="S3">
-        <v>0.002822329912062068</v>
+        <v>0.004547913605549516</v>
       </c>
       <c r="T3">
-        <v>0.002822329912062068</v>
+        <v>0.004547913605549514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H4">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>856.9188490332062</v>
+        <v>1474.148454375931</v>
       </c>
       <c r="R4">
-        <v>856.9188490332062</v>
+        <v>13267.33608938338</v>
       </c>
       <c r="S4">
-        <v>0.003903597276950005</v>
+        <v>0.006358784506467414</v>
       </c>
       <c r="T4">
-        <v>0.003903597276950005</v>
+        <v>0.006358784506467413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H5">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>63167.56327666339</v>
+        <v>70698.56893478152</v>
       </c>
       <c r="R5">
-        <v>63167.56327666339</v>
+        <v>636287.1204130338</v>
       </c>
       <c r="S5">
-        <v>0.2877527180975747</v>
+        <v>0.3049604423743221</v>
       </c>
       <c r="T5">
-        <v>0.2877527180975747</v>
+        <v>0.3049604423743221</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H6">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>60606.06215367168</v>
+        <v>61357.51279457848</v>
       </c>
       <c r="R6">
-        <v>60606.06215367168</v>
+        <v>552217.6151512064</v>
       </c>
       <c r="S6">
-        <v>0.2760840883085393</v>
+        <v>0.2646675106264739</v>
       </c>
       <c r="T6">
-        <v>0.2760840883085393</v>
+        <v>0.2646675106264739</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H7">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>83824.94837993011</v>
+        <v>85788.6133187439</v>
       </c>
       <c r="R7">
-        <v>83824.94837993011</v>
+        <v>772097.5198686952</v>
       </c>
       <c r="S7">
-        <v>0.381855108690333</v>
+        <v>0.3700518109850006</v>
       </c>
       <c r="T7">
-        <v>0.381855108690333</v>
+        <v>0.3700518109850006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>2981.768438272718</v>
+        <v>3323.457347620943</v>
       </c>
       <c r="R8">
-        <v>2981.768438272718</v>
+        <v>29911.11612858849</v>
       </c>
       <c r="S8">
-        <v>0.01358311019680442</v>
+        <v>0.01433583505597738</v>
       </c>
       <c r="T8">
-        <v>0.01358311019680442</v>
+        <v>0.01433583505597738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>2860.855064272766</v>
+        <v>2884.345182672658</v>
       </c>
       <c r="R9">
-        <v>2860.855064272766</v>
+        <v>25959.10664405392</v>
       </c>
       <c r="S9">
-        <v>0.01303230294355568</v>
+        <v>0.01244171128385255</v>
       </c>
       <c r="T9">
-        <v>0.01303230294355568</v>
+        <v>0.01244171128385255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>3956.881862363299</v>
+        <v>4032.822751184764</v>
       </c>
       <c r="R10">
-        <v>3956.881862363299</v>
+        <v>36295.40476066288</v>
       </c>
       <c r="S10">
-        <v>0.01802512954471806</v>
+        <v>0.01739570444987448</v>
       </c>
       <c r="T10">
-        <v>0.01802512954471806</v>
+        <v>0.01739570444987448</v>
       </c>
     </row>
   </sheetData>
